--- a/Documentation/Pokemon_learnset_rebalance/110_Weezing.xlsx
+++ b/Documentation/Pokemon_learnset_rebalance/110_Weezing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan ten Napel\Desktop\Overig\Pokémon ROM hacking\Changelog\Pokémon_learnset_rebalance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ADB40A-98A8-42BB-AD1D-39DCB4087E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE89A37-EB04-459D-9A90-E5F15B5B3B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9460" yWindow="1090" windowWidth="9740" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="122">
   <si>
     <t>Level</t>
   </si>
@@ -711,7 +711,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1104,6 +1104,9 @@
       <c r="E36" t="s">
         <v>81</v>
       </c>
+      <c r="F36" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
